--- a/pre/RANA.xlsx
+++ b/pre/RANA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Heston\PreOrder Sheets\New Pre Order Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrik\Downloads\Viking-master\Viking-master\pre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B0B0BD-7D7C-4C3A-B2A7-58091A2C18D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4BA077-4FF7-409E-A210-AB0130A32F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,8 +340,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -355,19 +354,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -396,7 +395,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -827,7 +826,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:P32"/>
+      <selection activeCell="E21" sqref="E21:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,531 +838,462 @@
     <col min="5" max="16" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="21" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="23" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="14">
-        <v>43803</v>
-      </c>
-      <c r="F21" s="14">
-        <v>43817</v>
-      </c>
-      <c r="G21" s="14">
-        <v>43831</v>
-      </c>
-      <c r="H21" s="14">
-        <v>43845</v>
-      </c>
-      <c r="I21" s="14">
-        <v>43859</v>
-      </c>
-      <c r="J21" s="14">
-        <v>43873</v>
-      </c>
-      <c r="K21" s="14">
-        <v>43887</v>
-      </c>
-      <c r="L21" s="14">
-        <v>43901</v>
-      </c>
-      <c r="M21" s="14">
-        <v>43915</v>
-      </c>
-      <c r="N21" s="14">
-        <v>43929</v>
-      </c>
-      <c r="O21" s="14">
-        <v>43943</v>
-      </c>
-      <c r="P21" s="14">
-        <v>43957</v>
-      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="14">
-        <v>43817</v>
-      </c>
-      <c r="F22" s="14">
-        <v>43831</v>
-      </c>
-      <c r="G22" s="14">
-        <v>43845</v>
-      </c>
-      <c r="H22" s="14">
-        <v>43859</v>
-      </c>
-      <c r="I22" s="14">
-        <v>43873</v>
-      </c>
-      <c r="J22" s="14">
-        <v>43887</v>
-      </c>
-      <c r="K22" s="14">
-        <v>43901</v>
-      </c>
-      <c r="L22" s="14">
-        <v>43915</v>
-      </c>
-      <c r="M22" s="14">
-        <v>43929</v>
-      </c>
-      <c r="N22" s="14">
-        <v>43943</v>
-      </c>
-      <c r="O22" s="14">
-        <v>43957</v>
-      </c>
-      <c r="P22" s="14">
-        <v>43971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
